--- a/results/mod2.antielite_salience.eff.COMB.xlsx
+++ b/results/mod2.antielite_salience.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.086299658806478</v>
+        <v>-0.0862986718441164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0344168471151552</v>
+        <v>0.0344167577521811</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.153755439613603</v>
+        <v>-0.153754277503031</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0188438779993525</v>
+        <v>-0.0188430661852017</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.50748299278339</v>
+        <v>-2.50746082665638</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0121594432944523</v>
+        <v>0.0121602059614905</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0156331922437805</v>
+        <v>0.0156327106190665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0353769875580828</v>
+        <v>0.0353768827414172</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0537044292515834</v>
+        <v>-0.0537047054394077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849708137391445</v>
+        <v>0.0849701266775407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.441902867453414</v>
+        <v>0.44189056264035</v>
       </c>
       <c r="H3" t="n">
-        <v>0.658559495580985</v>
+        <v>0.65856840013458</v>
       </c>
     </row>
   </sheetData>
